--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1270 +397,1351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.062616442377684</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.1247054714000644</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.5512982753304221</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>0.4762251613161247</v>
+      </c>
+      <c r="F2">
         <v>0.578637031876673</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>1.319833416543931</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.67048403815982</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>4.146709199475946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.064872528242605</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.1434112921100741</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.5512982753304221</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="F3">
         <v>0.5956557681083399</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>1.11503167949401</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.503662943916497</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>4.000593547028975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.087433386891813</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.08729382998004512</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.3675321835536147</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>0.3934033941307115</v>
+      </c>
+      <c r="F4">
         <v>0.4311413178688935</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>0.7509397025163743</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.746602687898104</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>3.140006082028816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.261151998490712</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.1932934806700999</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.7350643671072294</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>0.3726979523343584</v>
+      </c>
+      <c r="F5">
         <v>0.6240203284944512</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>0.8419626967607834</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.05565566771840942</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.711148539241685</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>4.083846491576044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.324322402708493</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.1184701978300612</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.6942274578234947</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>0.3934033941307115</v>
+      </c>
+      <c r="F6">
         <v>0.6523848888805627</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>0.7736954510774768</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.596493798951134</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>3.989897193081846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.306273715789128</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.2431756692301257</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.5308798206885547</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="F7">
         <v>0.6240203284944512</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>0.7509397025163743</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.488682637349679</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>3.985613240462157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.527370130551363</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.2743520370801418</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.7350643671072294</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>0.5176360449088312</v>
+      </c>
+      <c r="F8">
         <v>0.4651787903322273</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>0.5688937140275563</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.07791793480577316</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.648776973904291</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>4.166413018813122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.768771318097885</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.07482328284003867</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.4492060021210847</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>0.4555197195197714</v>
+      </c>
+      <c r="F9">
         <v>0.3460476367105594</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>0.4778707197831473</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>3.116718959552715</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>3.572238679072487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.689808312825658</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.04364691499002256</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.4287875474792174</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>0.7453959046687169</v>
+      </c>
+      <c r="F10">
         <v>0.2779726917838919</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>0.2503132341721247</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.701659834794597</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>3.447055739463314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.220542452922139</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.03741164142001933</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.3471137289117474</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>0.6211632538905972</v>
+      </c>
+      <c r="F11">
         <v>0.1248040656988903</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.3868477255387384</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.127850748035216</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>2.749014001925814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.096457730351496</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.112234924260058</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.3062768196280122</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="F12">
         <v>0.119131153621668</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.2048017370499203</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.850033498454836</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>2.388374985160021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.7986543961819537</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.02494109428001289</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.2654399103442773</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="F13">
         <v>0.09076659323555654</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.1820459884888181</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.372979116074301</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>1.911320602779485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.4106076274155807</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.01247054714000645</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.1020922732093374</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="F14">
         <v>0.06807494492666741</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.06826724568330676</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>0.6615126383748988</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>1.013505148912904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.3339007080082744</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.04364691499002256</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.1633476371349399</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.1242326507781195</v>
+      </c>
+      <c r="F15">
         <v>0.1701873623166685</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.1137787428055112</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>0.8248613652554166</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>0.9490940160335362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.2729863896554134</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.03741164142001933</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="F16">
         <v>0.07374785700388971</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.1137787428055112</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="I16">
         <v>0.4979246308848337</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.148901667084771</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.006235273570003223</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.06125536392560248</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>0.05105620869500056</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.04551149712220452</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>0.3129600103975818</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1173164649758802</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.006235273570003223</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.02041845464186749</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.02836456038611141</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.09102299424440903</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>0.2633577478182714</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1128042932460386</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.03117636785001611</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.04083690928373497</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.08282176718541295</v>
+      </c>
+      <c r="F19">
         <v>0.06807494492666741</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.09102299424440903</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>0.3439155095508662</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>0.4267372767362791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.2075598995727111</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.01247054714000645</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="F20">
         <v>0.06240203284944514</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.2048017370499203</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="I20">
         <v>0.487234216612083</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.6993866181254399</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.4492060021210847</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.1242326507781195</v>
+      </c>
+      <c r="F21">
         <v>0.2098977468572246</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.2048017370499203</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H21" t="n">
-        <v>1.604260191951043</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>1.728492842729163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.19798159427293</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.5921351846141573</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="F22">
         <v>0.3744121970966706</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>0.7054282053941697</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.899794135631618</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>3.624484598503982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.547674903335651</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.2858583649861449</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>0.6625741374833036</v>
+      </c>
+      <c r="F23">
         <v>0.2212435710116691</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>0.3640919769776361</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.459836904108474</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>3.122411041591778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.500297100172314</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.09976437712005157</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.4900429114048199</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="F24">
         <v>0.3063372521700033</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>0.6599167082719655</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.0897517497702</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>3.669504120068091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.297249372329444</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1371760185400709</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.3879506381954823</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>0.9524503226322494</v>
+      </c>
+      <c r="F25">
         <v>0.5502724714905616</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>0.6599167082719655</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.1001802018931369</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.132745410720662</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>4.085195733352911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.094201644486575</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1059996506900548</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.4900429114048199</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>0.4762251613161247</v>
+      </c>
+      <c r="F26">
         <v>0.618347416417229</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>1.570146650716055</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.912131674345779</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>4.388356835661905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.033287326133714</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.1621171128200838</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.4900429114048199</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>0.4141088359270649</v>
+      </c>
+      <c r="F27">
         <v>0.6750765371894519</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>1.433612159349442</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.816398313984875</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>4.230507149911939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.02200689680911</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.06858800927003544</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.2858583649861449</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="F28">
         <v>0.3630663729422262</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>0.7736954510774768</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.546608495716039</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>3.043539098828517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.263408084355633</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.1932934806700999</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.9188304588840367</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>0.6211632538905972</v>
+      </c>
+      <c r="F29">
         <v>0.5956557681083399</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>1.160543176616215</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.08904906834945508</v>
       </c>
-      <c r="H29" t="n">
-        <v>4.220780036983779</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>4.841943290874377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.125786846595466</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.09352910355004836</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.7350643671072294</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>0.3312870687416518</v>
+      </c>
+      <c r="F30">
         <v>0.6637307130350072</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>0.5688937140275563</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.04452453417472754</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.231529278490035</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>3.562816347231686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.34462717549278</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1621171128200838</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.7146459124653621</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>0.4141088359270649</v>
+      </c>
+      <c r="F31">
         <v>0.5672912077222284</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>0.796451199638579</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.05565566771840942</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.640788275857443</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>4.054897111784508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.561211418525174</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.2307051220901193</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.6738090031816273</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="F32">
         <v>0.4651787903322273</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>1.024008685249602</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.05565566771840942</v>
       </c>
-      <c r="H32" t="n">
-        <v>4.010568687097159</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>4.507499290209637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.795844348476935</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.05611746213002901</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.3266952742698798</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>0.4141088359270649</v>
+      </c>
+      <c r="F33">
         <v>0.300664340092781</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>0.4323592226609428</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>2.911680647630568</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>3.325789483557633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.863526924424559</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.2858583649861449</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="F34">
         <v>0.3063372521700033</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>0.1592902399277158</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H34" t="n">
-        <v>2.655980869305796</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>3.38067133217816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.304017629924207</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.2654399103442773</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>0.5590469285015375</v>
+      </c>
+      <c r="F35">
         <v>0.1588415381622239</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.4778707197831473</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.247137886011229</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>2.806184814512766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.240847225706426</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.03741164142001933</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.1837660917768074</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>0.6832795792796569</v>
+      </c>
+      <c r="F36">
         <v>0.1361498898533348</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>0.2048017370499203</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H36" t="n">
-        <v>1.825238852893872</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>2.508518432173528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.87536131558926</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.01247054714000645</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.2246030010605423</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="F37">
         <v>0.1815331864711131</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.2275574856110225</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H37" t="n">
-        <v>1.543787802959308</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>2.040718406071786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.4512171729841546</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.01247054714000645</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.1020922732093374</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="F38">
         <v>0.07942076908111197</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.1137787428055112</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>0.7589795052201217</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>1.110972015758127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.3903028546312936</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.06858800927003544</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.1837660917768074</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.08282176718541295</v>
+      </c>
+      <c r="F39">
         <v>0.1248040656988903</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.09102299424440903</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>0.8584840156214357</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>0.9413057828068486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.3000594200344627</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.06858800927003544</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="F40">
         <v>0.09643950531277885</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.1592902399277158</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40">
         <v>0.6243771745449928</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1849990409235034</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.006235273570003223</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.06125536392560248</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.05105620869500056</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>0.06826724568330676</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>0.3718131327974164</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1579260105444542</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.006235273570003223</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.04083690928373497</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>0.02836456038611141</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.09102299424440903</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>0.3243857480287128</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1150603791109595</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.04083690928373497</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.04141088359270648</v>
+      </c>
+      <c r="F43">
         <v>0.05105620869500056</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.1365344913666135</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>0.3621938091663182</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>0.4036046927590247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.2053038137077904</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.01247054714000645</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="F44">
         <v>0.06807494492666741</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.2503132341721247</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="I44">
         <v>0.5361625399465889</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.7038987898552811</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.2450214557024099</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.1035272089817662</v>
+      </c>
+      <c r="F45">
         <v>0.2836456038611142</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>0.2048017370499203</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.04452453417472754</v>
       </c>
-      <c r="H45" t="n">
-        <v>1.500597941353463</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>1.604125150335229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1.236335053976584</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.006235273570003223</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.3879506381954823</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="F46">
         <v>0.3800851091738931</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>0.9329856910051921</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H46" t="n">
-        <v>2.954722899464836</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>3.6794133623372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.574747933714699</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.3471137289117474</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>0.6211632538905972</v>
+      </c>
+      <c r="F47">
         <v>0.19855192270278</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>0.4096034740998407</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H47" t="n">
-        <v>2.559854013682758</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>3.181017267573355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.439382781819453</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.1059996506900548</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.5512982753304221</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>0.6418686956869507</v>
+      </c>
+      <c r="F48">
         <v>0.3176830763244479</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>0.5916494625886587</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.04452453417472754</v>
       </c>
-      <c r="H48" t="n">
-        <v>3.050537780927764</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>3.692406476614714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.297249372329444</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.1371760185400709</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.3879506381954823</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>0.9524503226322494</v>
+      </c>
+      <c r="F49">
         <v>0.5502724714905616</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>0.6599167082719655</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.1001802018931369</v>
       </c>
-      <c r="H49" t="n">
-        <v>3.132745410720662</v>
+      <c r="I49">
+        <v>4.085195733352911</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.062616442377684</v>
+        <v>4.709975582430815</v>
       </c>
       <c r="C2">
-        <v>0.1247054714000644</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="D2">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E2">
-        <v>0.4762251613161247</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F2">
-        <v>0.578637031876673</v>
+        <v>2.564769546696605</v>
       </c>
       <c r="G2">
-        <v>1.319833416543931</v>
+        <v>5.850072440897422</v>
       </c>
       <c r="H2">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I2">
-        <v>4.146709199475946</v>
+        <v>18.3800083436231</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.064872528242605</v>
+        <v>4.719975530588841</v>
       </c>
       <c r="C3">
-        <v>0.1434112921100741</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="D3">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E3">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F3">
-        <v>0.5956557681083399</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="G3">
-        <v>1.11503167949401</v>
+        <v>4.942302579378856</v>
       </c>
       <c r="H3">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I3">
-        <v>4.000593547028975</v>
+        <v>17.73236058683113</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.087433386891813</v>
+        <v>4.819975012169113</v>
       </c>
       <c r="C4">
-        <v>0.08729382998004512</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="D4">
-        <v>0.3675321835536147</v>
+        <v>1.629061570345751</v>
       </c>
       <c r="E4">
-        <v>0.3934033941307115</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="F4">
-        <v>0.4311413178688935</v>
+        <v>1.911004760283745</v>
       </c>
       <c r="G4">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H4">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I4">
-        <v>3.140006082028816</v>
+        <v>13.91786479601961</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.261151998490712</v>
+        <v>5.58997102033721</v>
       </c>
       <c r="C5">
-        <v>0.1932934806700999</v>
+        <v>0.8567602926999018</v>
       </c>
       <c r="D5">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E5">
-        <v>0.3726979523343584</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F5">
-        <v>0.6240203284944512</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="G5">
-        <v>0.8419626967607834</v>
+        <v>3.731942764020769</v>
       </c>
       <c r="H5">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I5">
-        <v>4.083846491576044</v>
+        <v>18.10137363833706</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.324322402708493</v>
+        <v>5.869969568761972</v>
       </c>
       <c r="C6">
-        <v>0.1184701978300612</v>
+        <v>0.5251111471386498</v>
       </c>
       <c r="D6">
-        <v>0.6942274578234947</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="E6">
-        <v>0.3934033941307115</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="F6">
-        <v>0.6523848888805627</v>
+        <v>2.891651939903035</v>
       </c>
       <c r="G6">
-        <v>0.7736954510774768</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="H6">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I6">
-        <v>3.989897193081846</v>
+        <v>17.6849497206871</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.306273715789128</v>
+        <v>5.789969983497756</v>
       </c>
       <c r="C7">
-        <v>0.2431756692301257</v>
+        <v>1.077859723074071</v>
       </c>
       <c r="D7">
-        <v>0.5308798206885547</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="E7">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F7">
-        <v>0.6240203284944512</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="G7">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H7">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I7">
-        <v>3.985613240462157</v>
+        <v>17.66596139015659</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.527370130551363</v>
+        <v>6.769964902984418</v>
       </c>
       <c r="C8">
-        <v>0.2743520370801418</v>
+        <v>1.216046867057926</v>
       </c>
       <c r="D8">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E8">
-        <v>0.5176360449088312</v>
+        <v>2.294386793649954</v>
       </c>
       <c r="F8">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G8">
-        <v>0.5688937140275563</v>
+        <v>2.521582948662682</v>
       </c>
       <c r="H8">
-        <v>0.07791793480577316</v>
+        <v>0.3453659813012649</v>
       </c>
       <c r="I8">
-        <v>4.166413018813122</v>
+        <v>18.467344191496</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.768771318097885</v>
+        <v>7.839959355893333</v>
       </c>
       <c r="C9">
-        <v>0.07482328284003867</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="D9">
-        <v>0.4492060021210847</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="E9">
-        <v>0.4555197195197714</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F9">
-        <v>0.3460476367105594</v>
+        <v>1.533832768122479</v>
       </c>
       <c r="G9">
-        <v>0.4778707197831473</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="I9">
-        <v>3.572238679072487</v>
+        <v>15.83370657751049</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.689808312825658</v>
+        <v>7.489961170362379</v>
       </c>
       <c r="C10">
-        <v>0.04364691499002256</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D10">
-        <v>0.4287875474792174</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="E10">
-        <v>0.7453959046687169</v>
+        <v>3.303916982855934</v>
       </c>
       <c r="F10">
-        <v>0.2779726917838919</v>
+        <v>1.232095174393467</v>
       </c>
       <c r="G10">
-        <v>0.2503132341721247</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="H10">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I10">
-        <v>3.447055739463314</v>
+        <v>15.27884165599955</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.220542452922139</v>
+        <v>5.409971953492723</v>
       </c>
       <c r="C11">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D11">
-        <v>0.3471137289117474</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="E11">
-        <v>0.6211632538905972</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="F11">
-        <v>0.1248040656988903</v>
+        <v>0.5531855885031892</v>
       </c>
       <c r="G11">
-        <v>0.3868477255387384</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H11">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I11">
-        <v>2.749014001925814</v>
+        <v>12.18481881934685</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.096457730351496</v>
+        <v>4.859974804801222</v>
       </c>
       <c r="C12">
-        <v>0.112234924260058</v>
+        <v>0.4974737183418786</v>
       </c>
       <c r="D12">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E12">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F12">
-        <v>0.119131153621668</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="G12">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H12">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I12">
-        <v>2.388374985160021</v>
+        <v>10.5863107450336</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.7986543961819537</v>
+        <v>3.539981647941632</v>
       </c>
       <c r="C13">
-        <v>0.02494109428001289</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D13">
-        <v>0.2654399103442773</v>
+        <v>1.176544467471932</v>
       </c>
       <c r="E13">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F13">
-        <v>0.09076659323555654</v>
+        <v>0.4023167916386831</v>
       </c>
       <c r="G13">
-        <v>0.1820459884888181</v>
+        <v>0.8069065435720583</v>
       </c>
       <c r="H13">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I13">
-        <v>1.911320602779485</v>
+        <v>8.471799428536094</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.4106076274155807</v>
+        <v>1.819990564760952</v>
       </c>
       <c r="C14">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D14">
-        <v>0.1020922732093374</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="E14">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F14">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G14">
-        <v>0.06826724568330676</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="I14">
-        <v>1.013505148912904</v>
+        <v>4.492293092478818</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3339007080082744</v>
+        <v>1.479992327388027</v>
       </c>
       <c r="C15">
-        <v>0.04364691499002256</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D15">
-        <v>0.1633476371349399</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E15">
-        <v>0.1242326507781195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F15">
-        <v>0.1701873623166685</v>
+        <v>0.7543439843225307</v>
       </c>
       <c r="G15">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I15">
-        <v>0.9490940160335362</v>
+        <v>4.206795098094593</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.2729863896554134</v>
+        <v>1.209993727121292</v>
       </c>
       <c r="C16">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F16">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G16">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I16">
-        <v>0.4979246308848337</v>
+        <v>2.207017282840884</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.148901667084771</v>
+        <v>0.6599965784297956</v>
       </c>
       <c r="C17">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D17">
-        <v>0.06125536392560248</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="F17">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G17">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I17">
-        <v>0.3129600103975818</v>
+        <v>1.387174100140632</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1173164649758802</v>
+        <v>0.5199973042174146</v>
       </c>
       <c r="C18">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D18">
-        <v>0.02041845464186749</v>
+        <v>0.090503420574764</v>
       </c>
       <c r="F18">
-        <v>0.02836456038611141</v>
+        <v>0.1257239973870885</v>
       </c>
       <c r="G18">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I18">
-        <v>0.2633577478182714</v>
+        <v>1.167315422762067</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1128042932460386</v>
+        <v>0.4999974079013602</v>
       </c>
       <c r="C19">
-        <v>0.03117636785001611</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="D19">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="E19">
-        <v>0.08282176718541295</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F19">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G19">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I19">
-        <v>0.4267372767362791</v>
+        <v>1.891484145533778</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2075598995727111</v>
+        <v>0.9199952305385036</v>
       </c>
       <c r="C20">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F20">
-        <v>0.06240203284944514</v>
+        <v>0.2765927942515946</v>
       </c>
       <c r="G20">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="I20">
-        <v>0.487234216612083</v>
+        <v>2.159632743902206</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.6993866181254399</v>
+        <v>3.099983928988435</v>
       </c>
       <c r="C21">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D21">
-        <v>0.4492060021210847</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="E21">
-        <v>0.1242326507781195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F21">
-        <v>0.2098977468572246</v>
+        <v>0.9303575806644546</v>
       </c>
       <c r="G21">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H21">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I21">
-        <v>1.728492842729163</v>
+        <v>7.661427735340069</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.19798159427293</v>
+        <v>5.309972471912445</v>
       </c>
       <c r="C22">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D22">
-        <v>0.5921351846141573</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="E22">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F22">
-        <v>0.3744121970966706</v>
+        <v>1.659556765509567</v>
       </c>
       <c r="G22">
-        <v>0.7054282053941697</v>
+        <v>3.126762856341726</v>
       </c>
       <c r="H22">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I22">
-        <v>3.624484598503982</v>
+        <v>16.0652830852609</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.547674903335651</v>
+        <v>6.859964436406665</v>
       </c>
       <c r="C23">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D23">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E23">
-        <v>0.6625741374833036</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="F23">
-        <v>0.2212435710116691</v>
+        <v>0.9806471796192898</v>
       </c>
       <c r="G23">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="H23">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I23">
-        <v>3.122411041591778</v>
+        <v>13.83987596813652</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.500297100172314</v>
+        <v>6.649965525088093</v>
       </c>
       <c r="C24">
-        <v>0.09976437712005157</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="D24">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E24">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F24">
-        <v>0.3063372521700033</v>
+        <v>1.357819171780555</v>
       </c>
       <c r="G24">
-        <v>0.6599167082719655</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H24">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I24">
-        <v>3.669504120068091</v>
+        <v>16.26482907273424</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.297249372329444</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="C25">
-        <v>0.1371760185400709</v>
+        <v>0.6080234335289629</v>
       </c>
       <c r="D25">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E25">
-        <v>0.9524503226322494</v>
+        <v>4.221671700315915</v>
       </c>
       <c r="F25">
-        <v>0.5502724714905616</v>
+        <v>2.439045549309516</v>
       </c>
       <c r="G25">
-        <v>0.6599167082719655</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H25">
-        <v>0.1001802018931369</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="I25">
-        <v>4.085195733352911</v>
+        <v>18.10735406134803</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.094201644486575</v>
+        <v>4.849974856643195</v>
       </c>
       <c r="C26">
-        <v>0.1059996506900548</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="D26">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E26">
-        <v>0.4762251613161247</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F26">
-        <v>0.618347416417229</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="G26">
-        <v>1.570146650716055</v>
+        <v>6.959568938308999</v>
       </c>
       <c r="H26">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I26">
-        <v>4.388356835661905</v>
+        <v>19.45109516347438</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.033287326133714</v>
+        <v>4.579976256376463</v>
       </c>
       <c r="C27">
-        <v>0.1621171128200838</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="D27">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E27">
-        <v>0.4141088359270649</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F27">
-        <v>0.6750765371894519</v>
+        <v>2.992231137812705</v>
       </c>
       <c r="G27">
-        <v>1.433612159349442</v>
+        <v>6.354389030629958</v>
       </c>
       <c r="H27">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I27">
-        <v>4.230507149911939</v>
+        <v>18.75143709690698</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.02200689680911</v>
+        <v>4.529976515586326</v>
       </c>
       <c r="C28">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="D28">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E28">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F28">
-        <v>0.3630663729422262</v>
+        <v>1.609267166554732</v>
       </c>
       <c r="G28">
-        <v>0.7736954510774768</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="H28">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I28">
-        <v>3.043539098828517</v>
+        <v>13.49028141102369</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.263408084355633</v>
+        <v>5.599970968495233</v>
       </c>
       <c r="C29">
-        <v>0.1932934806700999</v>
+        <v>0.8567602926999018</v>
       </c>
       <c r="D29">
-        <v>0.9188304588840367</v>
+        <v>4.07265392586438</v>
       </c>
       <c r="E29">
-        <v>0.6211632538905972</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="F29">
-        <v>0.5956557681083399</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="G29">
-        <v>1.160543176616215</v>
+        <v>5.144029215271871</v>
       </c>
       <c r="H29">
-        <v>0.08904906834945508</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="I29">
-        <v>4.841943290874377</v>
+        <v>21.4615864784702</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.125786846595466</v>
+        <v>4.989974130855575</v>
       </c>
       <c r="C30">
-        <v>0.09352910355004836</v>
+        <v>0.4145614319515656</v>
       </c>
       <c r="D30">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E30">
-        <v>0.3312870687416518</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="F30">
-        <v>0.6637307130350072</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="G30">
-        <v>0.5688937140275563</v>
+        <v>2.521582948662682</v>
       </c>
       <c r="H30">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I30">
-        <v>3.562816347231686</v>
+        <v>15.79194272827017</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.34462717549278</v>
+        <v>5.959969102184219</v>
       </c>
       <c r="C31">
-        <v>0.1621171128200838</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="D31">
-        <v>0.7146459124653621</v>
+        <v>3.167619720116739</v>
       </c>
       <c r="E31">
-        <v>0.4141088359270649</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F31">
-        <v>0.5672912077222284</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="G31">
-        <v>0.796451199638579</v>
+        <v>3.530216128127754</v>
       </c>
       <c r="H31">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I31">
-        <v>4.054897111784508</v>
+        <v>17.97305746845025</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.561211418525174</v>
+        <v>6.919964125354826</v>
       </c>
       <c r="C32">
-        <v>0.2307051220901193</v>
+        <v>1.022584865480528</v>
       </c>
       <c r="D32">
-        <v>0.6738090031816273</v>
+        <v>2.986612878967212</v>
       </c>
       <c r="E32">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F32">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G32">
-        <v>1.024008685249602</v>
+        <v>4.538849307592827</v>
       </c>
       <c r="H32">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I32">
-        <v>4.507499290209637</v>
+        <v>19.97918604309136</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.795844348476935</v>
+        <v>7.959958733789653</v>
       </c>
       <c r="C33">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D33">
-        <v>0.3266952742698798</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="E33">
-        <v>0.4141088359270649</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F33">
-        <v>0.300664340092781</v>
+        <v>1.332674372303138</v>
       </c>
       <c r="G33">
-        <v>0.4323592226609428</v>
+        <v>1.916403040983638</v>
       </c>
       <c r="I33">
-        <v>3.325789483557633</v>
+        <v>14.74133717036356</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.863526924424559</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="C34">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D34">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E34">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F34">
-        <v>0.3063372521700033</v>
+        <v>1.357819171780555</v>
       </c>
       <c r="G34">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="H34">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I34">
-        <v>3.38067133217816</v>
+        <v>14.98459725614103</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.304017629924207</v>
+        <v>5.779970035339729</v>
       </c>
       <c r="C35">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D35">
-        <v>0.2654399103442773</v>
+        <v>1.176544467471932</v>
       </c>
       <c r="E35">
-        <v>0.5590469285015375</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="F35">
-        <v>0.1588415381622239</v>
+        <v>0.7040543853676954</v>
       </c>
       <c r="G35">
-        <v>0.4778707197831473</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="H35">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I35">
-        <v>2.806184814512766</v>
+        <v>12.43822458324578</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.240847225706426</v>
+        <v>5.499971486914966</v>
       </c>
       <c r="C36">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D36">
-        <v>0.1837660917768074</v>
+        <v>0.8145307851728757</v>
       </c>
       <c r="E36">
-        <v>0.6832795792796569</v>
+        <v>3.02859056761794</v>
       </c>
       <c r="F36">
-        <v>0.1361498898533348</v>
+        <v>0.6034751874580245</v>
       </c>
       <c r="G36">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H36">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I36">
-        <v>2.508518432173528</v>
+        <v>11.1188384561205</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.87536131558926</v>
+        <v>3.879979885314557</v>
       </c>
       <c r="C37">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D37">
-        <v>0.2246030010605423</v>
+        <v>0.9955376263224038</v>
       </c>
       <c r="E37">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F37">
-        <v>0.1815331864711131</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="G37">
-        <v>0.2275574856110225</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="H37">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I37">
-        <v>2.040718406071786</v>
+        <v>9.045346448534401</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.4512171729841546</v>
+        <v>1.999989631605441</v>
       </c>
       <c r="C38">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D38">
-        <v>0.1020922732093374</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="E38">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F38">
-        <v>0.07942076908111197</v>
+        <v>0.3520271926838477</v>
       </c>
       <c r="G38">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I38">
-        <v>1.110972015758127</v>
+        <v>4.924308394171156</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.3903028546312936</v>
+        <v>1.729991031338707</v>
       </c>
       <c r="C39">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="D39">
-        <v>0.1837660917768074</v>
+        <v>0.8145307851728757</v>
       </c>
       <c r="E39">
-        <v>0.08282176718541295</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F39">
-        <v>0.1248040656988903</v>
+        <v>0.5531855885031892</v>
       </c>
       <c r="G39">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I39">
-        <v>0.9413057828068486</v>
+        <v>4.172274280549275</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.3000594200344627</v>
+        <v>1.329993105017618</v>
       </c>
       <c r="C40">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F40">
-        <v>0.09643950531277885</v>
+        <v>0.4274615911161008</v>
       </c>
       <c r="G40">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="I40">
-        <v>0.6243771745449928</v>
+        <v>2.767509638523752</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1849990409235034</v>
+        <v>0.8199957489582312</v>
       </c>
       <c r="C41">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D41">
-        <v>0.06125536392560248</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="F41">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G41">
-        <v>0.06826724568330676</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="I41">
-        <v>0.3718131327974164</v>
+        <v>1.648036588615575</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1579260105444542</v>
+        <v>0.6999963710619042</v>
       </c>
       <c r="C42">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D42">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="F42">
-        <v>0.02836456038611141</v>
+        <v>0.1257239973870885</v>
       </c>
       <c r="G42">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I42">
-        <v>0.3243857480287128</v>
+        <v>1.437817910181321</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1150603791109595</v>
+        <v>0.5099973560593879</v>
       </c>
       <c r="C43">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D43">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="E43">
-        <v>0.04141088359270648</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="F43">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G43">
-        <v>0.1365344913666135</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="I43">
-        <v>0.4036046927590247</v>
+        <v>1.788950530067028</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2053038137077904</v>
+        <v>0.9099952823804761</v>
       </c>
       <c r="C44">
-        <v>0.01247054714000645</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F44">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G44">
-        <v>0.2503132341721247</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="I44">
-        <v>0.5361625399465889</v>
+        <v>2.376504231114611</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.7038987898552811</v>
+        <v>3.119983825304488</v>
       </c>
       <c r="C45">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D45">
-        <v>0.2450214557024099</v>
+        <v>1.086041046897168</v>
       </c>
       <c r="E45">
-        <v>0.1035272089817662</v>
+        <v>0.4588773587299909</v>
       </c>
       <c r="F45">
-        <v>0.2836456038611142</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="G45">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H45">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I45">
-        <v>1.604125150335229</v>
+        <v>7.110176342026418</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.236335053976584</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="C46">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D46">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E46">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F46">
-        <v>0.3800851091738931</v>
+        <v>1.684701564986985</v>
       </c>
       <c r="G46">
-        <v>0.9329856910051921</v>
+        <v>4.135396035806799</v>
       </c>
       <c r="H46">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I46">
-        <v>3.6794133623372</v>
+        <v>16.30875111954867</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.574747933714699</v>
+        <v>6.979963814302995</v>
       </c>
       <c r="C47">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D47">
-        <v>0.3471137289117474</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="E47">
-        <v>0.6211632538905972</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="F47">
-        <v>0.19855192270278</v>
+        <v>0.8800679817096193</v>
       </c>
       <c r="G47">
-        <v>0.4096034740998407</v>
+        <v>1.815539723037131</v>
       </c>
       <c r="H47">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I47">
-        <v>3.181017267573355</v>
+        <v>14.09964410491974</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.439382781819453</v>
+        <v>6.379966924821361</v>
       </c>
       <c r="C48">
-        <v>0.1059996506900548</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="D48">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E48">
-        <v>0.6418686956869507</v>
+        <v>2.845039624125943</v>
       </c>
       <c r="F48">
-        <v>0.3176830763244479</v>
+        <v>1.408108770735391</v>
       </c>
       <c r="G48">
-        <v>0.5916494625886587</v>
+        <v>2.622446266609189</v>
       </c>
       <c r="H48">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I48">
-        <v>3.692406476614714</v>
+        <v>16.36634222067063</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.297249372329444</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="C49">
-        <v>0.1371760185400709</v>
+        <v>0.6080234335289629</v>
       </c>
       <c r="D49">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E49">
-        <v>0.9524503226322494</v>
+        <v>4.221671700315915</v>
       </c>
       <c r="F49">
-        <v>0.5502724714905616</v>
+        <v>2.439045549309516</v>
       </c>
       <c r="G49">
-        <v>0.6599167082719655</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H49">
-        <v>0.1001802018931369</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="I49">
-        <v>4.085195733352911</v>
+        <v>18.10735406134803</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>4.709975582430815</v>
+        <v>1.046661240540181</v>
       </c>
       <c r="C2">
-        <v>0.5527485759354208</v>
+        <v>0.122833016874538</v>
       </c>
       <c r="D2">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E2">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="F2">
-        <v>2.564769546696605</v>
+        <v>0.5699487881548011</v>
       </c>
       <c r="G2">
-        <v>5.850072440897422</v>
+        <v>1.300016097977205</v>
       </c>
       <c r="H2">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I2">
-        <v>18.3800083436231</v>
+        <v>4.084446298582912</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>4.719975530588841</v>
+        <v>1.048883451241966</v>
       </c>
       <c r="C3">
-        <v>0.6356608623257338</v>
+        <v>0.1412579694057187</v>
       </c>
       <c r="D3">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E3">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F3">
-        <v>2.640203945128857</v>
+        <v>0.5867119878064129</v>
       </c>
       <c r="G3">
-        <v>4.942302579378856</v>
+        <v>1.098289462084191</v>
       </c>
       <c r="H3">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I3">
-        <v>17.73236058683113</v>
+        <v>3.940524574851363</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.819975012169113</v>
+        <v>1.071105558259803</v>
       </c>
       <c r="C4">
-        <v>0.3869240031547946</v>
+        <v>0.08598311181217656</v>
       </c>
       <c r="D4">
-        <v>1.629061570345751</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E4">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="F4">
-        <v>1.911004760283745</v>
+        <v>0.4246677245074988</v>
       </c>
       <c r="G4">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="H4">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I4">
-        <v>13.91786479601961</v>
+        <v>3.092858843559914</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>5.58997102033721</v>
+        <v>1.242215782297158</v>
       </c>
       <c r="C5">
-        <v>0.8567602926999018</v>
+        <v>0.1903911761555339</v>
       </c>
       <c r="D5">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E5">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F5">
-        <v>2.765927942515946</v>
+        <v>0.6146506538924323</v>
       </c>
       <c r="G5">
-        <v>3.731942764020769</v>
+        <v>0.829320614226838</v>
       </c>
       <c r="H5">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I5">
-        <v>18.10137363833706</v>
+        <v>4.022527475186013</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>5.869969568761972</v>
+        <v>1.304437681947104</v>
       </c>
       <c r="C6">
-        <v>0.5251111471386498</v>
+        <v>0.116691366030811</v>
       </c>
       <c r="D6">
-        <v>3.077116299541976</v>
+        <v>0.6838036221204393</v>
       </c>
       <c r="E6">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="F6">
-        <v>2.891651939903035</v>
+        <v>0.642589319978452</v>
       </c>
       <c r="G6">
-        <v>3.429352810181247</v>
+        <v>0.7620784022624995</v>
       </c>
       <c r="H6">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I6">
-        <v>17.6849497206871</v>
+        <v>3.929988826819355</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>5.789969983497756</v>
+        <v>1.286659996332834</v>
       </c>
       <c r="C7">
-        <v>1.077859723074071</v>
+        <v>0.239524382905349</v>
       </c>
       <c r="D7">
-        <v>2.353088934943864</v>
+        <v>0.5229086522097475</v>
       </c>
       <c r="E7">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F7">
-        <v>2.765927942515946</v>
+        <v>0.6146506538924323</v>
       </c>
       <c r="G7">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="H7">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I7">
-        <v>17.66596139015659</v>
+        <v>3.925769197812574</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>6.769964902984418</v>
+        <v>1.504436645107648</v>
       </c>
       <c r="C8">
-        <v>1.216046867057926</v>
+        <v>0.2702326371239835</v>
       </c>
       <c r="D8">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E8">
-        <v>2.294386793649954</v>
+        <v>0.509863731922212</v>
       </c>
       <c r="F8">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="G8">
-        <v>2.521582948662682</v>
+        <v>0.5603517663694848</v>
       </c>
       <c r="H8">
-        <v>0.3453659813012649</v>
+        <v>0.07674799584472555</v>
       </c>
       <c r="I8">
-        <v>18.467344191496</v>
+        <v>4.103854264776889</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>7.839959355893333</v>
+        <v>1.742213190198518</v>
       </c>
       <c r="C9">
-        <v>0.3316491455612525</v>
+        <v>0.07369981012472279</v>
       </c>
       <c r="D9">
-        <v>1.991075252644808</v>
+        <v>0.4424611672544018</v>
       </c>
       <c r="E9">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="F9">
-        <v>1.533832768122479</v>
+        <v>0.3408517262494398</v>
       </c>
       <c r="G9">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="I9">
-        <v>15.83370657751049</v>
+        <v>3.518601461668997</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>7.489961170362379</v>
+        <v>1.664435815636084</v>
       </c>
       <c r="C10">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="D10">
-        <v>1.900571832070044</v>
+        <v>0.4223492960155653</v>
       </c>
       <c r="E10">
-        <v>3.303916982855934</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="F10">
-        <v>1.232095174393467</v>
+        <v>0.2737989276429926</v>
       </c>
       <c r="G10">
-        <v>1.10949649741158</v>
+        <v>0.2465547772025734</v>
       </c>
       <c r="H10">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I10">
-        <v>15.27884165599955</v>
+        <v>3.395298145777678</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>5.409971953492723</v>
+        <v>1.202215989665048</v>
       </c>
       <c r="C11">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="D11">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="E11">
-        <v>2.753264152379946</v>
+        <v>0.6118364783066543</v>
       </c>
       <c r="F11">
-        <v>0.5531855885031892</v>
+        <v>0.1229301307784865</v>
       </c>
       <c r="G11">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="H11">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I11">
-        <v>12.18481881934685</v>
+        <v>2.707737515410409</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>4.859974804801222</v>
+        <v>1.079994401066938</v>
       </c>
       <c r="C12">
-        <v>0.4974737183418786</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D12">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="E12">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="F12">
-        <v>0.5280407890257716</v>
+        <v>0.1173423975612825</v>
       </c>
       <c r="G12">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="H12">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I12">
-        <v>10.5863107450336</v>
+        <v>2.352513498896356</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>3.539981647941632</v>
+        <v>0.786662588431474</v>
       </c>
       <c r="C13">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="D13">
-        <v>1.176544467471932</v>
+        <v>0.2614543261048737</v>
       </c>
       <c r="E13">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="F13">
-        <v>0.4023167916386831</v>
+        <v>0.08940373147526291</v>
       </c>
       <c r="G13">
-        <v>0.8069065435720583</v>
+        <v>0.1793125652382351</v>
       </c>
       <c r="H13">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I13">
-        <v>8.471799428536094</v>
+        <v>1.882622095230243</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.819990564760952</v>
+        <v>0.4044423477246562</v>
       </c>
       <c r="C14">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="D14">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="E14">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="F14">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="G14">
-        <v>0.3025899538395219</v>
+        <v>0.06724221196433816</v>
       </c>
       <c r="I14">
-        <v>4.492293092478818</v>
+        <v>0.9982873538841819</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.479992327388027</v>
+        <v>0.3288871838640059</v>
       </c>
       <c r="C15">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="D15">
-        <v>0.724027364598112</v>
+        <v>0.1608949699106916</v>
       </c>
       <c r="E15">
-        <v>0.5506528304759889</v>
+        <v>0.1223672956613309</v>
       </c>
       <c r="F15">
-        <v>0.7543439843225307</v>
+        <v>0.1676319965161179</v>
       </c>
       <c r="G15">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I15">
-        <v>4.206795098094593</v>
+        <v>0.9348433551321316</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.209993727121292</v>
+        <v>0.2688874949158429</v>
       </c>
       <c r="C16">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="F16">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="G16">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I16">
-        <v>2.207017282840884</v>
+        <v>0.4904482850757524</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.6599965784297956</v>
+        <v>0.1466659063177324</v>
       </c>
       <c r="C17">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="D17">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="F17">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="G17">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="I17">
-        <v>1.387174100140632</v>
+        <v>0.3082609111423628</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.5199973042174146</v>
+        <v>0.1155549564927588</v>
       </c>
       <c r="C18">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="D18">
-        <v>0.090503420574764</v>
+        <v>0.02011187123883645</v>
       </c>
       <c r="F18">
-        <v>0.1257239973870885</v>
+        <v>0.02793866608601966</v>
       </c>
       <c r="G18">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="I18">
-        <v>1.167315422762067</v>
+        <v>0.2594034272804594</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.4999974079013602</v>
+        <v>0.1111105350891912</v>
       </c>
       <c r="C19">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="D19">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="E19">
-        <v>0.3671018869839927</v>
+        <v>0.08157819710755392</v>
       </c>
       <c r="F19">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="G19">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="I19">
-        <v>1.891484145533778</v>
+        <v>0.4203298101186173</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.9199952305385036</v>
+        <v>0.2044433845641118</v>
       </c>
       <c r="C20">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="F20">
-        <v>0.2765927942515946</v>
+        <v>0.06146506538924325</v>
       </c>
       <c r="G20">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I20">
-        <v>2.159632743902206</v>
+        <v>0.4799183875338234</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>3.099983928988435</v>
+        <v>0.6888853175529852</v>
       </c>
       <c r="C21">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D21">
-        <v>1.991075252644808</v>
+        <v>0.4424611672544018</v>
       </c>
       <c r="E21">
-        <v>0.5506528304759889</v>
+        <v>0.1223672956613309</v>
       </c>
       <c r="F21">
-        <v>0.9303575806644546</v>
+        <v>0.2067461290365454</v>
       </c>
       <c r="G21">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="H21">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I21">
-        <v>7.661427735340069</v>
+        <v>1.702539496742237</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>5.309972471912445</v>
+        <v>1.17999388264721</v>
       </c>
       <c r="C22">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D22">
-        <v>2.624599196668157</v>
+        <v>0.5832442659262569</v>
       </c>
       <c r="E22">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F22">
-        <v>1.659556765509567</v>
+        <v>0.3687903923354595</v>
       </c>
       <c r="G22">
-        <v>3.126762856341726</v>
+        <v>0.6948361902981612</v>
       </c>
       <c r="H22">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I22">
-        <v>16.0652830852609</v>
+        <v>3.570062907835755</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>6.859964436406665</v>
+        <v>1.524436541423703</v>
       </c>
       <c r="C23">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D23">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="E23">
-        <v>2.936815095871942</v>
+        <v>0.6526255768604313</v>
       </c>
       <c r="F23">
-        <v>0.9806471796192898</v>
+        <v>0.2179215954709533</v>
       </c>
       <c r="G23">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="H23">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I23">
-        <v>13.83987596813652</v>
+        <v>3.075527992919228</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>6.649965525088093</v>
+        <v>1.477770116686243</v>
       </c>
       <c r="C24">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="D24">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="E24">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="F24">
-        <v>1.357819171780555</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G24">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="H24">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I24">
-        <v>16.26482907273424</v>
+        <v>3.614406460607608</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>5.749970190865643</v>
+        <v>1.277771153525699</v>
       </c>
       <c r="C25">
-        <v>0.6080234335289629</v>
+        <v>0.1351163185619918</v>
       </c>
       <c r="D25">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="E25">
-        <v>4.221671700315915</v>
+        <v>0.93814926673687</v>
       </c>
       <c r="F25">
-        <v>2.439045549309516</v>
+        <v>0.5420101220687814</v>
       </c>
       <c r="G25">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="H25">
-        <v>0.4440419759587692</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I25">
-        <v>18.10735406134803</v>
+        <v>4.023856458077342</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>4.849974856643195</v>
+        <v>1.077772190365155</v>
       </c>
       <c r="C26">
-        <v>0.4698362895451076</v>
+        <v>0.1044080643433573</v>
       </c>
       <c r="D26">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="E26">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="F26">
-        <v>2.740783143038528</v>
+        <v>0.6090629206752285</v>
       </c>
       <c r="G26">
-        <v>6.959568938308999</v>
+        <v>1.546570875179779</v>
       </c>
       <c r="H26">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I26">
-        <v>19.45109516347438</v>
+        <v>4.322465591883197</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>4.579976256376463</v>
+        <v>1.017772501416992</v>
       </c>
       <c r="C27">
-        <v>0.718573148716047</v>
+        <v>0.1596829219368993</v>
       </c>
       <c r="D27">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="E27">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="F27">
-        <v>2.992231137812705</v>
+        <v>0.6649402528472679</v>
       </c>
       <c r="G27">
-        <v>6.354389030629958</v>
+        <v>1.412086451251102</v>
       </c>
       <c r="H27">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I27">
-        <v>18.75143709690698</v>
+        <v>4.166986021534885</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>4.529976515586326</v>
+        <v>1.006661447908072</v>
       </c>
       <c r="C28">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="D28">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="E28">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F28">
-        <v>1.609267166554732</v>
+        <v>0.3576149259010517</v>
       </c>
       <c r="G28">
-        <v>3.429352810181247</v>
+        <v>0.7620784022624995</v>
       </c>
       <c r="H28">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I28">
-        <v>13.49028141102369</v>
+        <v>2.997840313560821</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>5.599970968495233</v>
+        <v>1.244437992998941</v>
       </c>
       <c r="C29">
-        <v>0.8567602926999018</v>
+        <v>0.1903911761555339</v>
       </c>
       <c r="D29">
-        <v>4.07265392586438</v>
+        <v>0.9050342057476399</v>
       </c>
       <c r="E29">
-        <v>2.753264152379946</v>
+        <v>0.6118364783066543</v>
       </c>
       <c r="F29">
-        <v>2.640203945128857</v>
+        <v>0.5867119878064129</v>
       </c>
       <c r="G29">
-        <v>5.144029215271871</v>
+        <v>1.143117603393749</v>
       </c>
       <c r="H29">
-        <v>0.394703978630017</v>
+        <v>0.08771199525111491</v>
       </c>
       <c r="I29">
-        <v>21.4615864784702</v>
+        <v>4.769241439660046</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>4.989974130855575</v>
+        <v>1.108883140190128</v>
       </c>
       <c r="C30">
-        <v>0.4145614319515656</v>
+        <v>0.09212476265590346</v>
       </c>
       <c r="D30">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E30">
-        <v>1.468407547935971</v>
+        <v>0.3263127884302157</v>
       </c>
       <c r="F30">
-        <v>2.94194153885787</v>
+        <v>0.65376478641286</v>
       </c>
       <c r="G30">
-        <v>2.521582948662682</v>
+        <v>0.5603517663694848</v>
       </c>
       <c r="H30">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I30">
-        <v>15.79194272827017</v>
+        <v>3.509320606282261</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>5.959969102184219</v>
+        <v>1.324437578263159</v>
       </c>
       <c r="C31">
-        <v>0.718573148716047</v>
+        <v>0.1596829219368993</v>
       </c>
       <c r="D31">
-        <v>3.167619720116739</v>
+        <v>0.7039154933592756</v>
       </c>
       <c r="E31">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="F31">
-        <v>2.514479947741769</v>
+        <v>0.5587733217203932</v>
       </c>
       <c r="G31">
-        <v>3.530216128127754</v>
+        <v>0.7844924729172789</v>
       </c>
       <c r="H31">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I31">
-        <v>17.97305746845025</v>
+        <v>3.994012770766723</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>6.919964125354826</v>
+        <v>1.537769805634406</v>
       </c>
       <c r="C32">
-        <v>1.022584865480528</v>
+        <v>0.2272410812178953</v>
       </c>
       <c r="D32">
-        <v>2.986612878967212</v>
+        <v>0.6636917508816028</v>
       </c>
       <c r="E32">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F32">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="G32">
-        <v>4.538849307592827</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="H32">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I32">
-        <v>19.97918604309136</v>
+        <v>4.439819120686971</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>7.959958733789653</v>
+        <v>1.768879718619925</v>
       </c>
       <c r="C33">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D33">
-        <v>1.448054729196224</v>
+        <v>0.3217899398213832</v>
       </c>
       <c r="E33">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="F33">
-        <v>1.332674372303138</v>
+        <v>0.2961498605118084</v>
       </c>
       <c r="G33">
-        <v>1.916403040983638</v>
+        <v>0.4258673424408085</v>
       </c>
       <c r="I33">
-        <v>14.74133717036356</v>
+        <v>3.275852704525236</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>8.259957178530476</v>
+        <v>1.835546039673439</v>
       </c>
       <c r="C34">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D34">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="E34">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F34">
-        <v>1.357819171780555</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G34">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="H34">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I34">
-        <v>14.98459725614103</v>
+        <v>3.329910501364673</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>5.779970035339729</v>
+        <v>1.284437785631051</v>
       </c>
       <c r="C35">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D35">
-        <v>1.176544467471932</v>
+        <v>0.2614543261048737</v>
       </c>
       <c r="E35">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F35">
-        <v>0.7040543853676954</v>
+        <v>0.1564565300817101</v>
       </c>
       <c r="G35">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="H35">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I35">
-        <v>12.43822458324578</v>
+        <v>2.76404990738795</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>5.499971486914966</v>
+        <v>1.222215885981103</v>
       </c>
       <c r="C36">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="D36">
-        <v>0.8145307851728757</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="E36">
-        <v>3.02859056761794</v>
+        <v>0.67302012613732</v>
       </c>
       <c r="F36">
-        <v>0.6034751874580245</v>
+        <v>0.1341055972128943</v>
       </c>
       <c r="G36">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="H36">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I36">
-        <v>11.1188384561205</v>
+        <v>2.470852990249</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>3.879979885314557</v>
+        <v>0.8622177522921242</v>
       </c>
       <c r="C37">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="D37">
-        <v>0.9955376263224038</v>
+        <v>0.2212305836272009</v>
       </c>
       <c r="E37">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F37">
-        <v>0.8046335832773662</v>
+        <v>0.1788074629505258</v>
       </c>
       <c r="G37">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="H37">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I37">
-        <v>9.045346448534401</v>
+        <v>2.010076988563201</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.999989631605441</v>
+        <v>0.4444421403567649</v>
       </c>
       <c r="C38">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="D38">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="E38">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="F38">
-        <v>0.3520271926838477</v>
+        <v>0.07822826504085505</v>
       </c>
       <c r="G38">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I38">
-        <v>4.924308394171156</v>
+        <v>1.094290754260257</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.729991031338707</v>
+        <v>0.3844424514086016</v>
       </c>
       <c r="C39">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="D39">
-        <v>0.8145307851728757</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="E39">
-        <v>0.3671018869839927</v>
+        <v>0.08157819710755392</v>
       </c>
       <c r="F39">
-        <v>0.5531855885031892</v>
+        <v>0.1229301307784865</v>
       </c>
       <c r="G39">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="I39">
-        <v>4.172274280549275</v>
+        <v>0.9271720623442834</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.329993105017618</v>
+        <v>0.2955540233372486</v>
       </c>
       <c r="C40">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="F40">
-        <v>0.4274615911161008</v>
+        <v>0.09499146469246685</v>
       </c>
       <c r="G40">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="I40">
-        <v>2.767509638523752</v>
+        <v>0.6150021418941671</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.8199957489582312</v>
+        <v>0.1822212775462736</v>
       </c>
       <c r="C41">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="D41">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="F41">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="G41">
-        <v>0.3025899538395219</v>
+        <v>0.06724221196433816</v>
       </c>
       <c r="I41">
-        <v>1.648036588615575</v>
+        <v>0.3662303530256834</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.6999963710619042</v>
+        <v>0.1555547491248676</v>
       </c>
       <c r="C42">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="D42">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="F42">
-        <v>0.1257239973870885</v>
+        <v>0.02793866608601966</v>
       </c>
       <c r="G42">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="I42">
-        <v>1.437817910181321</v>
+        <v>0.3195150911514046</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.5099973560593879</v>
+        <v>0.1133327457909751</v>
       </c>
       <c r="C43">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D43">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="E43">
-        <v>0.1835509434919964</v>
+        <v>0.04078909855377696</v>
       </c>
       <c r="F43">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="G43">
-        <v>0.6051799076790437</v>
+        <v>0.1344844239286763</v>
       </c>
       <c r="I43">
-        <v>1.788950530067028</v>
+        <v>0.3975445622371174</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.9099952823804761</v>
+        <v>0.2022211738623281</v>
       </c>
       <c r="C44">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="F44">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="G44">
-        <v>1.10949649741158</v>
+        <v>0.2465547772025734</v>
       </c>
       <c r="I44">
-        <v>2.376504231114611</v>
+        <v>0.5281120513588025</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>3.119983825304488</v>
+        <v>0.6933297389565537</v>
       </c>
       <c r="C45">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D45">
-        <v>1.086041046897168</v>
+        <v>0.2413424548660373</v>
       </c>
       <c r="E45">
-        <v>0.4588773587299909</v>
+        <v>0.1019727463844424</v>
       </c>
       <c r="F45">
-        <v>1.257239973870885</v>
+        <v>0.2793866608601966</v>
       </c>
       <c r="G45">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="H45">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I45">
-        <v>7.110176342026418</v>
+        <v>1.580039187116983</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>5.479971590598911</v>
+        <v>1.217771464577536</v>
       </c>
       <c r="C46">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="D46">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="E46">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F46">
-        <v>1.684701564986985</v>
+        <v>0.3743781255526635</v>
       </c>
       <c r="G46">
-        <v>4.135396035806799</v>
+        <v>0.918976896845955</v>
       </c>
       <c r="H46">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I46">
-        <v>16.30875111954867</v>
+        <v>3.62416691545526</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>6.979963814302995</v>
+        <v>1.55110306984511</v>
       </c>
       <c r="C47">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D47">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="E47">
-        <v>2.753264152379946</v>
+        <v>0.6118364783066543</v>
       </c>
       <c r="F47">
-        <v>0.8800679817096193</v>
+        <v>0.1955706626021376</v>
       </c>
       <c r="G47">
-        <v>1.815539723037131</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="H47">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I47">
-        <v>14.09964410491974</v>
+        <v>3.13325424553772</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>6.379966924821361</v>
+        <v>1.41777042773808</v>
       </c>
       <c r="C48">
-        <v>0.4698362895451076</v>
+        <v>0.1044080643433573</v>
       </c>
       <c r="D48">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E48">
-        <v>2.845039624125943</v>
+        <v>0.6322310275835428</v>
       </c>
       <c r="F48">
-        <v>1.408108770735391</v>
+        <v>0.3129130601634202</v>
       </c>
       <c r="G48">
-        <v>2.622446266609189</v>
+        <v>0.5827658370242643</v>
       </c>
       <c r="H48">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I48">
-        <v>16.36634222067063</v>
+        <v>3.636964937926806</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>5.749970190865643</v>
+        <v>1.277771153525699</v>
       </c>
       <c r="C49">
-        <v>0.6080234335289629</v>
+        <v>0.1351163185619918</v>
       </c>
       <c r="D49">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="E49">
-        <v>4.221671700315915</v>
+        <v>0.93814926673687</v>
       </c>
       <c r="F49">
-        <v>2.439045549309516</v>
+        <v>0.5420101220687814</v>
       </c>
       <c r="G49">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="H49">
-        <v>0.4440419759587692</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I49">
-        <v>18.10735406134803</v>
+        <v>4.023856458077342</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.046661240540181</v>
+        <v>4.709975582430815</v>
       </c>
       <c r="C2">
-        <v>0.122833016874538</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="D2">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E2">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F2">
-        <v>0.5699487881548011</v>
+        <v>2.564769546696605</v>
       </c>
       <c r="G2">
-        <v>1.300016097977205</v>
+        <v>5.850072440897422</v>
       </c>
       <c r="H2">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I2">
-        <v>4.084446298582912</v>
+        <v>18.3800083436231</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.048883451241966</v>
+        <v>4.719975530588841</v>
       </c>
       <c r="C3">
-        <v>0.1412579694057187</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="D3">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E3">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F3">
-        <v>0.5867119878064129</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="G3">
-        <v>1.098289462084191</v>
+        <v>4.942302579378856</v>
       </c>
       <c r="H3">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I3">
-        <v>3.940524574851363</v>
+        <v>17.73236058683113</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.071105558259803</v>
+        <v>4.819975012169113</v>
       </c>
       <c r="C4">
-        <v>0.08598311181217656</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="D4">
-        <v>0.362013682299056</v>
+        <v>1.629061570345751</v>
       </c>
       <c r="E4">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="F4">
-        <v>0.4246677245074988</v>
+        <v>1.911004760283745</v>
       </c>
       <c r="G4">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H4">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I4">
-        <v>3.092858843559914</v>
+        <v>13.91786479601961</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.242215782297158</v>
+        <v>5.58997102033721</v>
       </c>
       <c r="C5">
-        <v>0.1903911761555339</v>
+        <v>0.8567602926999018</v>
       </c>
       <c r="D5">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E5">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F5">
-        <v>0.6146506538924323</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="G5">
-        <v>0.829320614226838</v>
+        <v>3.731942764020769</v>
       </c>
       <c r="H5">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I5">
-        <v>4.022527475186013</v>
+        <v>18.10137363833706</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.304437681947104</v>
+        <v>5.869969568761972</v>
       </c>
       <c r="C6">
-        <v>0.116691366030811</v>
+        <v>0.5251111471386498</v>
       </c>
       <c r="D6">
-        <v>0.6838036221204393</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="E6">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="F6">
-        <v>0.642589319978452</v>
+        <v>2.891651939903035</v>
       </c>
       <c r="G6">
-        <v>0.7620784022624995</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="H6">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I6">
-        <v>3.929988826819355</v>
+        <v>17.6849497206871</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.286659996332834</v>
+        <v>5.789969983497756</v>
       </c>
       <c r="C7">
-        <v>0.239524382905349</v>
+        <v>1.077859723074071</v>
       </c>
       <c r="D7">
-        <v>0.5229086522097475</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="E7">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F7">
-        <v>0.6146506538924323</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="G7">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H7">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I7">
-        <v>3.925769197812574</v>
+        <v>17.66596139015659</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.504436645107648</v>
+        <v>6.769964902984418</v>
       </c>
       <c r="C8">
-        <v>0.2702326371239835</v>
+        <v>1.216046867057926</v>
       </c>
       <c r="D8">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E8">
-        <v>0.509863731922212</v>
+        <v>2.294386793649954</v>
       </c>
       <c r="F8">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G8">
-        <v>0.5603517663694848</v>
+        <v>2.521582948662682</v>
       </c>
       <c r="H8">
-        <v>0.07674799584472555</v>
+        <v>0.3453659813012649</v>
       </c>
       <c r="I8">
-        <v>4.103854264776889</v>
+        <v>18.467344191496</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.742213190198518</v>
+        <v>7.839959355893333</v>
       </c>
       <c r="C9">
-        <v>0.07369981012472279</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="D9">
-        <v>0.4424611672544018</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="E9">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F9">
-        <v>0.3408517262494398</v>
+        <v>1.533832768122479</v>
       </c>
       <c r="G9">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="I9">
-        <v>3.518601461668997</v>
+        <v>15.83370657751049</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.664435815636084</v>
+        <v>7.489961170362379</v>
       </c>
       <c r="C10">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D10">
-        <v>0.4223492960155653</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="E10">
-        <v>0.7342037739679854</v>
+        <v>3.303916982855934</v>
       </c>
       <c r="F10">
-        <v>0.2737989276429926</v>
+        <v>1.232095174393467</v>
       </c>
       <c r="G10">
-        <v>0.2465547772025734</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="H10">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I10">
-        <v>3.395298145777678</v>
+        <v>15.27884165599955</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.202215989665048</v>
+        <v>5.409971953492723</v>
       </c>
       <c r="C11">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D11">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="E11">
-        <v>0.6118364783066543</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="F11">
-        <v>0.1229301307784865</v>
+        <v>0.5531855885031892</v>
       </c>
       <c r="G11">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H11">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I11">
-        <v>2.707737515410409</v>
+        <v>12.18481881934685</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.079994401066938</v>
+        <v>4.859974804801222</v>
       </c>
       <c r="C12">
-        <v>0.1105497151870842</v>
+        <v>0.4974737183418786</v>
       </c>
       <c r="D12">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E12">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F12">
-        <v>0.1173423975612825</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="G12">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H12">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I12">
-        <v>2.352513498896356</v>
+        <v>10.5863107450336</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.786662588431474</v>
+        <v>3.539981647941632</v>
       </c>
       <c r="C13">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D13">
-        <v>0.2614543261048737</v>
+        <v>1.176544467471932</v>
       </c>
       <c r="E13">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F13">
-        <v>0.08940373147526291</v>
+        <v>0.4023167916386831</v>
       </c>
       <c r="G13">
-        <v>0.1793125652382351</v>
+        <v>0.8069065435720583</v>
       </c>
       <c r="H13">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I13">
-        <v>1.882622095230243</v>
+        <v>8.471799428536094</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.4044423477246562</v>
+        <v>1.819990564760952</v>
       </c>
       <c r="C14">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D14">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="E14">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F14">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G14">
-        <v>0.06724221196433816</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="I14">
-        <v>0.9982873538841819</v>
+        <v>4.492293092478818</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3288871838640059</v>
+        <v>1.479992327388027</v>
       </c>
       <c r="C15">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D15">
-        <v>0.1608949699106916</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E15">
-        <v>0.1223672956613309</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F15">
-        <v>0.1676319965161179</v>
+        <v>0.7543439843225307</v>
       </c>
       <c r="G15">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I15">
-        <v>0.9348433551321316</v>
+        <v>4.206795098094593</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.2688874949158429</v>
+        <v>1.209993727121292</v>
       </c>
       <c r="C16">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F16">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G16">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I16">
-        <v>0.4904482850757524</v>
+        <v>2.207017282840884</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1466659063177324</v>
+        <v>0.6599965784297956</v>
       </c>
       <c r="C17">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D17">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="F17">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G17">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I17">
-        <v>0.3082609111423628</v>
+        <v>1.387174100140632</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1155549564927588</v>
+        <v>0.5199973042174146</v>
       </c>
       <c r="C18">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D18">
-        <v>0.02011187123883645</v>
+        <v>0.090503420574764</v>
       </c>
       <c r="F18">
-        <v>0.02793866608601966</v>
+        <v>0.1257239973870885</v>
       </c>
       <c r="G18">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I18">
-        <v>0.2594034272804594</v>
+        <v>1.167315422762067</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1111105350891912</v>
+        <v>0.4999974079013602</v>
       </c>
       <c r="C19">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="D19">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="E19">
-        <v>0.08157819710755392</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F19">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G19">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I19">
-        <v>0.4203298101186173</v>
+        <v>1.891484145533778</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2044433845641118</v>
+        <v>0.9199952305385036</v>
       </c>
       <c r="C20">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F20">
-        <v>0.06146506538924325</v>
+        <v>0.2765927942515946</v>
       </c>
       <c r="G20">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="I20">
-        <v>0.4799183875338234</v>
+        <v>2.159632743902206</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.6888853175529852</v>
+        <v>3.099983928988435</v>
       </c>
       <c r="C21">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D21">
-        <v>0.4424611672544018</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="E21">
-        <v>0.1223672956613309</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F21">
-        <v>0.2067461290365454</v>
+        <v>0.9303575806644546</v>
       </c>
       <c r="G21">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H21">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I21">
-        <v>1.702539496742237</v>
+        <v>7.661427735340069</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.17999388264721</v>
+        <v>5.309972471912445</v>
       </c>
       <c r="C22">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D22">
-        <v>0.5832442659262569</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="E22">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F22">
-        <v>0.3687903923354595</v>
+        <v>1.659556765509567</v>
       </c>
       <c r="G22">
-        <v>0.6948361902981612</v>
+        <v>3.126762856341726</v>
       </c>
       <c r="H22">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I22">
-        <v>3.570062907835755</v>
+        <v>16.0652830852609</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.524436541423703</v>
+        <v>6.859964436406665</v>
       </c>
       <c r="C23">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D23">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E23">
-        <v>0.6526255768604313</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="F23">
-        <v>0.2179215954709533</v>
+        <v>0.9806471796192898</v>
       </c>
       <c r="G23">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="H23">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I23">
-        <v>3.075527992919228</v>
+        <v>13.83987596813652</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.477770116686243</v>
+        <v>6.649965525088093</v>
       </c>
       <c r="C24">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="D24">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E24">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F24">
-        <v>0.3017375937290123</v>
+        <v>1.357819171780555</v>
       </c>
       <c r="G24">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H24">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I24">
-        <v>3.614406460607608</v>
+        <v>16.26482907273424</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.277771153525699</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="C25">
-        <v>0.1351163185619918</v>
+        <v>0.6080234335289629</v>
       </c>
       <c r="D25">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E25">
-        <v>0.93814926673687</v>
+        <v>4.221671700315915</v>
       </c>
       <c r="F25">
-        <v>0.5420101220687814</v>
+        <v>2.439045549309516</v>
       </c>
       <c r="G25">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H25">
-        <v>0.09867599465750425</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="I25">
-        <v>4.023856458077342</v>
+        <v>18.10735406134803</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.077772190365155</v>
+        <v>4.849974856643195</v>
       </c>
       <c r="C26">
-        <v>0.1044080643433573</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="D26">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E26">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F26">
-        <v>0.6090629206752285</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="G26">
-        <v>1.546570875179779</v>
+        <v>6.959568938308999</v>
       </c>
       <c r="H26">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I26">
-        <v>4.322465591883197</v>
+        <v>19.45109516347438</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.017772501416992</v>
+        <v>4.579976256376463</v>
       </c>
       <c r="C27">
-        <v>0.1596829219368993</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="D27">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E27">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F27">
-        <v>0.6649402528472679</v>
+        <v>2.992231137812705</v>
       </c>
       <c r="G27">
-        <v>1.412086451251102</v>
+        <v>6.354389030629958</v>
       </c>
       <c r="H27">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I27">
-        <v>4.166986021534885</v>
+        <v>18.75143709690698</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.006661447908072</v>
+        <v>4.529976515586326</v>
       </c>
       <c r="C28">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="D28">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E28">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F28">
-        <v>0.3576149259010517</v>
+        <v>1.609267166554732</v>
       </c>
       <c r="G28">
-        <v>0.7620784022624995</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="H28">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I28">
-        <v>2.997840313560821</v>
+        <v>13.49028141102369</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.244437992998941</v>
+        <v>5.599970968495233</v>
       </c>
       <c r="C29">
-        <v>0.1903911761555339</v>
+        <v>0.8567602926999018</v>
       </c>
       <c r="D29">
-        <v>0.9050342057476399</v>
+        <v>4.07265392586438</v>
       </c>
       <c r="E29">
-        <v>0.6118364783066543</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="F29">
-        <v>0.5867119878064129</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="G29">
-        <v>1.143117603393749</v>
+        <v>5.144029215271871</v>
       </c>
       <c r="H29">
-        <v>0.08771199525111491</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="I29">
-        <v>4.769241439660046</v>
+        <v>21.4615864784702</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.108883140190128</v>
+        <v>4.989974130855575</v>
       </c>
       <c r="C30">
-        <v>0.09212476265590346</v>
+        <v>0.4145614319515656</v>
       </c>
       <c r="D30">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E30">
-        <v>0.3263127884302157</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="F30">
-        <v>0.65376478641286</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="G30">
-        <v>0.5603517663694848</v>
+        <v>2.521582948662682</v>
       </c>
       <c r="H30">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I30">
-        <v>3.509320606282261</v>
+        <v>15.79194272827017</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.324437578263159</v>
+        <v>5.959969102184219</v>
       </c>
       <c r="C31">
-        <v>0.1596829219368993</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="D31">
-        <v>0.7039154933592756</v>
+        <v>3.167619720116739</v>
       </c>
       <c r="E31">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F31">
-        <v>0.5587733217203932</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="G31">
-        <v>0.7844924729172789</v>
+        <v>3.530216128127754</v>
       </c>
       <c r="H31">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I31">
-        <v>3.994012770766723</v>
+        <v>17.97305746845025</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.537769805634406</v>
+        <v>6.919964125354826</v>
       </c>
       <c r="C32">
-        <v>0.2272410812178953</v>
+        <v>1.022584865480528</v>
       </c>
       <c r="D32">
-        <v>0.6636917508816028</v>
+        <v>2.986612878967212</v>
       </c>
       <c r="E32">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F32">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G32">
-        <v>1.008633179465073</v>
+        <v>4.538849307592827</v>
       </c>
       <c r="H32">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I32">
-        <v>4.439819120686971</v>
+        <v>19.97918604309136</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.768879718619925</v>
+        <v>7.959958733789653</v>
       </c>
       <c r="C33">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D33">
-        <v>0.3217899398213832</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="E33">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F33">
-        <v>0.2961498605118084</v>
+        <v>1.332674372303138</v>
       </c>
       <c r="G33">
-        <v>0.4258673424408085</v>
+        <v>1.916403040983638</v>
       </c>
       <c r="I33">
-        <v>3.275852704525236</v>
+        <v>14.74133717036356</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.835546039673439</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="C34">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D34">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E34">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F34">
-        <v>0.3017375937290123</v>
+        <v>1.357819171780555</v>
       </c>
       <c r="G34">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="H34">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I34">
-        <v>3.329910501364673</v>
+        <v>14.98459725614103</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.284437785631051</v>
+        <v>5.779970035339729</v>
       </c>
       <c r="C35">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D35">
-        <v>0.2614543261048737</v>
+        <v>1.176544467471932</v>
       </c>
       <c r="E35">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="F35">
-        <v>0.1564565300817101</v>
+        <v>0.7040543853676954</v>
       </c>
       <c r="G35">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="H35">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I35">
-        <v>2.76404990738795</v>
+        <v>12.43822458324578</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.222215885981103</v>
+        <v>5.499971486914966</v>
       </c>
       <c r="C36">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D36">
-        <v>0.181006841149528</v>
+        <v>0.8145307851728757</v>
       </c>
       <c r="E36">
-        <v>0.67302012613732</v>
+        <v>3.02859056761794</v>
       </c>
       <c r="F36">
-        <v>0.1341055972128943</v>
+        <v>0.6034751874580245</v>
       </c>
       <c r="G36">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H36">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I36">
-        <v>2.470852990249</v>
+        <v>11.1188384561205</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.8622177522921242</v>
+        <v>3.879979885314557</v>
       </c>
       <c r="C37">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D37">
-        <v>0.2212305836272009</v>
+        <v>0.9955376263224038</v>
       </c>
       <c r="E37">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F37">
-        <v>0.1788074629505258</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="G37">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="H37">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I37">
-        <v>2.010076988563201</v>
+        <v>9.045346448534401</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.4444421403567649</v>
+        <v>1.999989631605441</v>
       </c>
       <c r="C38">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D38">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="E38">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F38">
-        <v>0.07822826504085505</v>
+        <v>0.3520271926838477</v>
       </c>
       <c r="G38">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I38">
-        <v>1.094290754260257</v>
+        <v>4.924308394171156</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.3844424514086016</v>
+        <v>1.729991031338707</v>
       </c>
       <c r="C39">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="D39">
-        <v>0.181006841149528</v>
+        <v>0.8145307851728757</v>
       </c>
       <c r="E39">
-        <v>0.08157819710755392</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F39">
-        <v>0.1229301307784865</v>
+        <v>0.5531855885031892</v>
       </c>
       <c r="G39">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I39">
-        <v>0.9271720623442834</v>
+        <v>4.172274280549275</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.2955540233372486</v>
+        <v>1.329993105017618</v>
       </c>
       <c r="C40">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F40">
-        <v>0.09499146469246685</v>
+        <v>0.4274615911161008</v>
       </c>
       <c r="G40">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="I40">
-        <v>0.6150021418941671</v>
+        <v>2.767509638523752</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1822212775462736</v>
+        <v>0.8199957489582312</v>
       </c>
       <c r="C41">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D41">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="F41">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G41">
-        <v>0.06724221196433816</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="I41">
-        <v>0.3662303530256834</v>
+        <v>1.648036588615575</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1555547491248676</v>
+        <v>0.6999963710619042</v>
       </c>
       <c r="C42">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D42">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="F42">
-        <v>0.02793866608601966</v>
+        <v>0.1257239973870885</v>
       </c>
       <c r="G42">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="I42">
-        <v>0.3195150911514046</v>
+        <v>1.437817910181321</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1133327457909751</v>
+        <v>0.5099973560593879</v>
       </c>
       <c r="C43">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D43">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="E43">
-        <v>0.04078909855377696</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="F43">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G43">
-        <v>0.1344844239286763</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="I43">
-        <v>0.3975445622371174</v>
+        <v>1.788950530067028</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2022211738623281</v>
+        <v>0.9099952823804761</v>
       </c>
       <c r="C44">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F44">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G44">
-        <v>0.2465547772025734</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="I44">
-        <v>0.5281120513588025</v>
+        <v>2.376504231114611</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.6933297389565537</v>
+        <v>3.119983825304488</v>
       </c>
       <c r="C45">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D45">
-        <v>0.2413424548660373</v>
+        <v>1.086041046897168</v>
       </c>
       <c r="E45">
-        <v>0.1019727463844424</v>
+        <v>0.4588773587299909</v>
       </c>
       <c r="F45">
-        <v>0.2793866608601966</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="G45">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H45">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I45">
-        <v>1.580039187116983</v>
+        <v>7.110176342026418</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.217771464577536</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="C46">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D46">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E46">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F46">
-        <v>0.3743781255526635</v>
+        <v>1.684701564986985</v>
       </c>
       <c r="G46">
-        <v>0.918976896845955</v>
+        <v>4.135396035806799</v>
       </c>
       <c r="H46">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I46">
-        <v>3.62416691545526</v>
+        <v>16.30875111954867</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.55110306984511</v>
+        <v>6.979963814302995</v>
       </c>
       <c r="C47">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D47">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="E47">
-        <v>0.6118364783066543</v>
+        <v>2.753264152379946</v>
       </c>
       <c r="F47">
-        <v>0.1955706626021376</v>
+        <v>0.8800679817096193</v>
       </c>
       <c r="G47">
-        <v>0.4034532717860291</v>
+        <v>1.815539723037131</v>
       </c>
       <c r="H47">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I47">
-        <v>3.13325424553772</v>
+        <v>14.09964410491974</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.41777042773808</v>
+        <v>6.379966924821361</v>
       </c>
       <c r="C48">
-        <v>0.1044080643433573</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="D48">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E48">
-        <v>0.6322310275835428</v>
+        <v>2.845039624125943</v>
       </c>
       <c r="F48">
-        <v>0.3129130601634202</v>
+        <v>1.408108770735391</v>
       </c>
       <c r="G48">
-        <v>0.5827658370242643</v>
+        <v>2.622446266609189</v>
       </c>
       <c r="H48">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I48">
-        <v>3.636964937926806</v>
+        <v>16.36634222067063</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.277771153525699</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="C49">
-        <v>0.1351163185619918</v>
+        <v>0.6080234335289629</v>
       </c>
       <c r="D49">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E49">
-        <v>0.93814926673687</v>
+        <v>4.221671700315915</v>
       </c>
       <c r="F49">
-        <v>0.5420101220687814</v>
+        <v>2.439045549309516</v>
       </c>
       <c r="G49">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H49">
-        <v>0.09867599465750425</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="I49">
-        <v>4.023856458077342</v>
+        <v>18.10735406134803</v>
       </c>
     </row>
   </sheetData>
